--- a/resources/testdata/TestData.xlsx
+++ b/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TechnoGitProject\HybridDriven_Jun20\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD3BE5-E0C3-46DA-9129-284B310B4494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19F580E-B2DE-4552-8565-A657E5354D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>uname</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>expected result</t>
+  </si>
+  <si>
+    <t>aavrutid@yahoo.com</t>
+  </si>
+  <si>
+    <t>Viplove@01</t>
+  </si>
+  <si>
+    <t>Aavruti Dalmia</t>
   </si>
   <si>
     <t>viplove01</t>
@@ -47,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +68,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,14 +98,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,16 +387,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -392,19 +412,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>8485033276</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3E63F5D0-C4B8-4D41-AF6F-0199635281AF}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F41C187E-B199-4B58-BE96-3BF7883883FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
